--- a/3 Statement Model.xlsx
+++ b/3 Statement Model.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/semaria/Desktop/Excel Project 2025 Sep/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{164C4E6A-F191-4E41-A376-9F845BB577B3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F8B11351-32E4-2347-B7D4-E7FBD94E8B24}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="18000" xr2:uid="{A36ACCB2-9C71-4F4A-ACD1-9D385267C5DA}"/>
+    <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="15760" xr2:uid="{A36ACCB2-9C71-4F4A-ACD1-9D385267C5DA}"/>
   </bookViews>
   <sheets>
     <sheet name="Instructions" sheetId="8" r:id="rId1"/>
@@ -63,7 +63,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="228" uniqueCount="152">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="224" uniqueCount="148">
   <si>
     <t>Instructions</t>
   </si>
@@ -470,9 +470,6 @@
     <t>*For all the items not mentioned, create general assumptions on Growth</t>
   </si>
   <si>
-    <t>https://www.tiktok.com/@talkwithjs/video/7501083863876111621?is_from_webapp=1&amp;sender_device=pc&amp;web_id=7549699768743478815</t>
-  </si>
-  <si>
     <t>Assumptions</t>
   </si>
   <si>
@@ -492,15 +489,6 @@
   </si>
   <si>
     <t>End Date</t>
-  </si>
-  <si>
-    <t>https://www.tiktok.com/@talkwithjs/video/7505549727761550598?lang=en</t>
-  </si>
-  <si>
-    <t>Balance Sheet + CFS</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Income Statement + CapEX Schedule </t>
   </si>
   <si>
     <t>Total Revenue Growth Rate</t>
@@ -1315,10 +1303,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{25CAF57D-7831-43C5-8D9D-34587C2BD487}">
-  <dimension ref="A1:T31"/>
+  <dimension ref="A1:T29"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="140" zoomScaleNormal="140" workbookViewId="0">
-      <selection activeCell="Q33" sqref="Q33"/>
+      <selection activeCell="E31" sqref="E31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -1332,7 +1320,7 @@
   <sheetData>
     <row r="1" spans="1:20" s="1" customFormat="1" ht="27" x14ac:dyDescent="0.35">
       <c r="A1" s="2" t="s">
-        <v>151</v>
+        <v>147</v>
       </c>
     </row>
     <row r="2" spans="1:20" s="3" customFormat="1" ht="20" x14ac:dyDescent="0.25">
@@ -1957,22 +1945,6 @@
       <c r="R29" s="25"/>
       <c r="S29" s="25"/>
       <c r="T29" s="26"/>
-    </row>
-    <row r="30" spans="2:20" x14ac:dyDescent="0.2">
-      <c r="B30" s="19" t="s">
-        <v>135</v>
-      </c>
-      <c r="P30" s="19" t="s">
-        <v>145</v>
-      </c>
-    </row>
-    <row r="31" spans="2:20" x14ac:dyDescent="0.2">
-      <c r="B31" s="19" t="s">
-        <v>143</v>
-      </c>
-      <c r="J31" s="19" t="s">
-        <v>144</v>
-      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -2532,10 +2504,10 @@
         <v>41</v>
       </c>
       <c r="G5" s="16" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="H5" s="16" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="J5" s="9">
         <f>EOMONTH(K5,-1)</f>
@@ -12940,7 +12912,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F175E971-C177-4EAA-8F47-A47755CA7145}">
   <dimension ref="A1:AD45"/>
   <sheetViews>
-    <sheetView topLeftCell="A2" zoomScale="114" zoomScaleNormal="114" workbookViewId="0">
+    <sheetView topLeftCell="A15" zoomScale="114" zoomScaleNormal="114" workbookViewId="0">
       <pane xSplit="2" topLeftCell="F1" activePane="topRight" state="frozen"/>
       <selection pane="topRight" activeCell="I50" sqref="I50"/>
     </sheetView>
@@ -13038,7 +13010,7 @@
         <v>2029</v>
       </c>
       <c r="P5" s="54" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
     </row>
     <row r="6" spans="1:17" ht="5" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -14016,7 +13988,7 @@
     </row>
     <row r="37" spans="2:14" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="C37" s="55"/>
       <c r="D37" s="55"/>
@@ -14033,7 +14005,7 @@
     </row>
     <row r="38" spans="2:14" x14ac:dyDescent="0.2">
       <c r="J38" s="58" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="K38" s="58"/>
       <c r="L38" s="58"/>
@@ -14132,7 +14104,7 @@
     </row>
     <row r="41" spans="2:14" x14ac:dyDescent="0.2">
       <c r="B41" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="E41" s="53">
         <f>E14/E9</f>
@@ -14222,7 +14194,7 @@
     </row>
     <row r="43" spans="2:14" x14ac:dyDescent="0.2">
       <c r="B43" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="E43" s="53">
         <f>E24/D24-1</f>
@@ -14479,7 +14451,7 @@
         <v>23536888.611380845</v>
       </c>
       <c r="O10" t="s">
-        <v>150</v>
+        <v>146</v>
       </c>
     </row>
     <row r="11" spans="1:21" x14ac:dyDescent="0.2">
@@ -15603,7 +15575,7 @@
     </row>
     <row r="44" spans="2:14" x14ac:dyDescent="0.2">
       <c r="B44" s="58" t="s">
-        <v>149</v>
+        <v>145</v>
       </c>
       <c r="D44" s="43">
         <f>D22-D43</f>
@@ -15652,7 +15624,7 @@
     </row>
     <row r="45" spans="2:14" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B45" s="1" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="D45" s="70"/>
       <c r="E45" s="70"/>
@@ -15663,7 +15635,7 @@
     </row>
     <row r="46" spans="2:14" s="71" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B46" s="71" t="s">
-        <v>146</v>
+        <v>142</v>
       </c>
       <c r="E46" s="74">
         <f>'Income Statement'!E11/'Income Statement'!D11-1</f>
@@ -15708,7 +15680,7 @@
     </row>
     <row r="47" spans="2:14" s="71" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B47" s="71" t="s">
-        <v>147</v>
+        <v>143</v>
       </c>
       <c r="E47" s="75">
         <f>'Income Statement'!E25/'Income Statement'!D25-1</f>
@@ -15753,7 +15725,7 @@
     </row>
     <row r="48" spans="2:14" s="71" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B48" s="71" t="s">
-        <v>148</v>
+        <v>144</v>
       </c>
       <c r="E48" s="75">
         <f t="shared" ref="E48:N48" ca="1" si="19">AVERAGE($E48:$I48)</f>
@@ -15806,8 +15778,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D0146A14-A1DC-4978-8C36-7603A63617D5}">
   <dimension ref="A1:N44"/>
   <sheetViews>
-    <sheetView topLeftCell="A8" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="J44" sqref="J44:N44"/>
+    <sheetView zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="G20" sqref="G20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
